--- a/MidPlate/Midplate BOM Jan 15.xlsx
+++ b/MidPlate/Midplate BOM Jan 15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The Bots\Electrical\MidPlate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E6EB3A-1071-4851-8603-78EBD13E8D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5D6854-29F2-4268-A31A-C6C1CDA2A674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Midplate BOM Jan 14" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
   <si>
     <t>Ref</t>
   </si>
@@ -257,9 +257,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Board Cost</t>
-  </si>
-  <si>
     <t>C440198</t>
   </si>
   <si>
@@ -330,6 +327,54 @@
   </si>
   <si>
     <t>usd to cad</t>
+  </si>
+  <si>
+    <t>3-794636-6</t>
+  </si>
+  <si>
+    <t>0297015.WXT</t>
+  </si>
+  <si>
+    <t>FIT0582</t>
+  </si>
+  <si>
+    <t>BM04B-GHS-TBT</t>
+  </si>
+  <si>
+    <t>2-1445053-2</t>
+  </si>
+  <si>
+    <t>RMCF0603ZT0R00</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Bottom side components and extra stuff</t>
+  </si>
+  <si>
+    <t>R4, R5</t>
+  </si>
+  <si>
+    <t>J4, J5</t>
+  </si>
+  <si>
+    <t>RMCF0603FT110R</t>
+  </si>
+  <si>
+    <t>Digikey cost</t>
+  </si>
+  <si>
+    <t>JLC cost</t>
+  </si>
+  <si>
+    <t>extra digikey</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1328,7 +1373,7 @@
         <v>JLC</v>
       </c>
       <c r="T3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -1339,10 +1384,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>0.317</v>
@@ -1377,7 +1422,7 @@
         <v>JLC</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="3">
         <v>33.590000000000003</v>
@@ -1398,7 +1443,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1">
         <v>0.05</v>
@@ -1433,13 +1478,13 @@
         <v>JLC</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="3">
         <v>10.78</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -1488,13 +1533,13 @@
         <v>JLC</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="3">
         <v>2.02</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -1543,7 +1588,7 @@
         <v>JLC</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="3">
         <v>62.46</v>
@@ -1553,10 +1598,10 @@
         <v>93.41</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -1605,13 +1650,13 @@
         <v>JLC</v>
       </c>
       <c r="P8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="3">
         <v>30.95</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -1631,12 +1676,12 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>H9*8</f>
+        <v>8</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>16.8</v>
+        <v>13.44</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
@@ -1644,20 +1689,20 @@
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>16.8</v>
+        <v>13.44</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="3">
         <v>1.85</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -1671,7 +1716,7 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>0.49519999999999997</v>
@@ -1706,13 +1751,13 @@
         <v>JLC</v>
       </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="3">
         <v>0.57999999999999996</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -1726,7 +1771,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>0.60599999999999998</v>
@@ -1774,7 +1819,7 @@
         <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12">
         <v>0.26900000000000002</v>
@@ -1789,27 +1834,27 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>H12*8</f>
+        <v>8</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>2.6900000000000004</v>
+        <v>2.1520000000000001</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>4.4350000000000005</v>
+        <v>4.3559999999999999</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>2.6900000000000004</v>
+        <v>2.1520000000000001</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="3">
         <v>74.34</v>
@@ -1844,27 +1889,27 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>H13*8</f>
+        <v>8</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>0.42000000000000004</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>4.2050000000000001</v>
+        <v>4.1719999999999997</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>0.42000000000000004</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
       <c r="P13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="3">
         <f>SUM(Q4:Q12)</f>
@@ -1921,7 +1966,7 @@
         <v>JLC</v>
       </c>
       <c r="P14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="3">
         <f>0.12*Q13</f>
@@ -1978,7 +2023,7 @@
         <v>JLC</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="3">
         <v>17.5</v>
@@ -2137,11 +2182,11 @@
       </c>
       <c r="Q18" s="3">
         <f>Q16+N22</f>
-        <v>293.74840000000006</v>
+        <v>372.69568000000004</v>
       </c>
       <c r="T18" s="3">
         <f>T16+J22</f>
-        <v>313.38469999999995</v>
+        <v>306.73869999999999</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -2161,12 +2206,12 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>H19*8</f>
+        <v>8</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>13.32</v>
+        <v>10.656000000000001</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="2"/>
@@ -2174,22 +2219,22 @@
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>13.32</v>
+        <v>10.656000000000001</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
       <c r="P19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="3">
         <f>Q18/10</f>
-        <v>29.374840000000006</v>
+        <v>37.269568000000007</v>
       </c>
       <c r="T19" s="3">
         <f>T18/10</f>
-        <v>31.338469999999994</v>
+        <v>30.673870000000001</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -2247,38 +2292,38 @@
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J22">
         <f>SUM(J2:J20)</f>
-        <v>221.43439999999998</v>
+        <v>214.78839999999997</v>
       </c>
       <c r="K22" t="s">
         <v>73</v>
       </c>
       <c r="L22">
         <f>SUM(L2:L20)</f>
-        <v>128.49380000000002</v>
+        <v>121.84780000000001</v>
       </c>
       <c r="M22" s="2">
         <f>SUMIF(M2:M20,"JLC",L2:L20)</f>
         <v>94.803799999999995</v>
       </c>
       <c r="N22">
-        <f>L22-M22</f>
-        <v>33.690000000000026</v>
+        <f>(L22-M22+J41)*1.12</f>
+        <v>112.63728000000003</v>
       </c>
       <c r="Q22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23">
-        <v>33.590000000000003</v>
+      <c r="M23" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24">
         <v>1.3497425000000001</v>
@@ -2290,6 +2335,200 @@
         <v>3.8687499999999999</v>
       </c>
     </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>3568</v>
+      </c>
+      <c r="E28">
+        <v>1.68</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <f>E28*I28</f>
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:J40" si="5">E29*I29</f>
+        <v>6.1349999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>8.85</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36">
+        <v>1.88</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37">
+        <v>3.7</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>113</v>
+      </c>
+      <c r="J41">
+        <f>SUM(J28:J40)</f>
+        <v>73.525000000000006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MidPlate/Midplate BOM Jan 15.xlsx
+++ b/MidPlate/Midplate BOM Jan 15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The Bots\Electrical\MidPlate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5D6854-29F2-4268-A31A-C6C1CDA2A674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A32E46-F8B9-4C1F-BFE1-D40F4CA00034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
   <si>
     <t>Ref</t>
   </si>
@@ -375,6 +375,18 @@
   </si>
   <si>
     <t>extra digikey</t>
+  </si>
+  <si>
+    <t>request submitted</t>
+  </si>
+  <si>
+    <t>794606-1</t>
+  </si>
+  <si>
+    <t>crimps</t>
+  </si>
+  <si>
+    <t>price if request approved</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1245,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2340,6 +2352,11 @@
         <v>107</v>
       </c>
     </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>3568</v>
@@ -2406,25 +2423,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
       <c r="J35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -2444,8 +2470,11 @@
         <f t="shared" si="5"/>
         <v>15.04</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -2465,8 +2494,11 @@
         <f t="shared" si="5"/>
         <v>29.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -2478,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>106</v>
       </c>
@@ -2499,7 +2531,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>108</v>
       </c>
@@ -2520,7 +2552,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I41" t="s">
         <v>113</v>
       </c>

--- a/MidPlate/Midplate BOM Jan 15.xlsx
+++ b/MidPlate/Midplate BOM Jan 15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The Bots\Electrical\MidPlate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A32E46-F8B9-4C1F-BFE1-D40F4CA00034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D029397A-35E5-4644-9144-31EDB81D0755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Midplate BOM Jan 14" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="121">
   <si>
     <t>Ref</t>
   </si>
@@ -377,9 +377,6 @@
     <t>extra digikey</t>
   </si>
   <si>
-    <t>request submitted</t>
-  </si>
-  <si>
     <t>794606-1</t>
   </si>
   <si>
@@ -387,6 +384,18 @@
   </si>
   <si>
     <t>price if request approved</t>
+  </si>
+  <si>
+    <t>request approved</t>
+  </si>
+  <si>
+    <t>QTY have</t>
+  </si>
+  <si>
+    <t>housing 2 pin</t>
+  </si>
+  <si>
+    <t>housing 6 pin</t>
   </si>
 </sst>
 </file>
@@ -946,9 +955,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -986,7 +995,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1092,7 +1101,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1234,7 +1243,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1242,20 +1251,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="8.77734375" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" customWidth="1"/>
-    <col min="19" max="19" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" customWidth="1"/>
+    <col min="20" max="20" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1281,19 +1290,22 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1318,28 +1330,28 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>H2*10</f>
         <v>10</v>
       </c>
-      <c r="J2">
-        <f>E2*I2</f>
+      <c r="K2">
+        <f>E2*J2</f>
         <v>0.74</v>
       </c>
-      <c r="K2">
-        <f>IF(ISBLANK(F2),"EMPTY",(F2*I2+IF(G2="yes",4.04,0)))</f>
+      <c r="L2">
+        <f>IF(ISBLANK(F2),"EMPTY",(F2*J2+IF(G2="yes",4.04,0)))</f>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="L2">
-        <f>IF(K2="EMPTY",J2,IF(K2&lt;J2+1,K2,J2))</f>
+      <c r="M2">
+        <f>IF(L2="EMPTY",K2,IF(L2&lt;K2+1,L2,K2))</f>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="M2" t="str">
-        <f>IF(K2="EMPTY","DIGIKEY",IF(K2&lt;J2+1,"JLC","DIGIKEY"))</f>
+      <c r="N2" t="str">
+        <f>IF(L2="EMPTY","DIGIKEY",IF(L2&lt;K2+1,"JLC","DIGIKEY"))</f>
         <v>JLC</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1364,31 +1376,31 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I20" si="0">H3*10</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J20" si="0">H3*10</f>
         <v>10</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J20" si="1">E3*I3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K20" si="1">E3*J3</f>
         <v>14.71</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K20" si="2">IF(ISBLANK(F3),"EMPTY",(F3*I3+IF(G3="yes",4.04,0)))</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L20" si="2">IF(ISBLANK(F3),"EMPTY",(F3*J3+IF(G3="yes",4.04,0)))</f>
         <v>14.670500000000001</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L20" si="3">IF(K3="EMPTY",J3,IF(K3&lt;J3+1,K3,J3))</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M20" si="3">IF(L3="EMPTY",K3,IF(L3&lt;K3+1,L3,K3))</f>
         <v>14.670500000000001</v>
       </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M20" si="4">IF(K3="EMPTY","DIGIKEY",IF(K3&lt;J3+1,"JLC","DIGIKEY"))</f>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N20" si="4">IF(L3="EMPTY","DIGIKEY",IF(L3&lt;K3+1,"JLC","DIGIKEY"))</f>
         <v>JLC</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1413,38 +1425,38 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>3.17</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" si="2"/>
         <v>0.90800000000000003</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="3"/>
         <v>0.90800000000000003</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>33.590000000000003</v>
       </c>
-      <c r="T4" s="3">
-        <f>Q4</f>
+      <c r="U4" s="3">
+        <f>R4</f>
         <v>33.590000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1469,37 +1481,37 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="2"/>
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="3"/>
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>83</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>10.78</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1524,37 +1536,37 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" si="2"/>
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="L6">
-        <f>IF(K6="EMPTY",J6,IF(K6&lt;J6+1,K6,J6))</f>
+      <c r="M6">
+        <f>IF(L6="EMPTY",K6,IF(L6&lt;K6+1,L6,K6))</f>
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="M6" t="str">
-        <f>IF(K6="EMPTY","DIGIKEY",IF(K6&lt;J6+1,"JLC","DIGIKEY"))</f>
+      <c r="N6" t="str">
+        <f>IF(L6="EMPTY","DIGIKEY",IF(L6&lt;K6+1,"JLC","DIGIKEY"))</f>
         <v>JLC</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>84</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>2.02</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1579,44 +1591,44 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>12.66</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="2"/>
         <v>13.093900000000001</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="3"/>
         <v>13.093900000000001</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>62.46</v>
       </c>
-      <c r="R7" s="2">
-        <f>SUM(Q7:Q8)</f>
+      <c r="S7" s="2">
+        <f>SUM(R7:R8)</f>
         <v>93.41</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>90</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1641,37 +1653,37 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f>H8*10+2</f>
         <v>12</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>5.7119999999999997</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="2"/>
         <v>5.2428799999999995</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="3"/>
         <v>5.2428799999999995</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>86</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>30.95</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1687,37 +1699,37 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f>H9*8</f>
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>13.44</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="2"/>
         <v>EMPTY</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="3"/>
         <v>13.44</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1.85</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1740,39 +1752,39 @@
         <v>20</v>
       </c>
       <c r="H10">
-        <v>11</v>
-      </c>
-      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
         <f>H10*10+2</f>
-        <v>112</v>
-      </c>
-      <c r="J10">
+        <v>122</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="1"/>
-        <v>55.462399999999995</v>
-      </c>
-      <c r="K10">
+        <v>60.414399999999993</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="2"/>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="L10">
+        <v>12.275000000000002</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="3"/>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="M10" t="str">
+        <v>12.275000000000002</v>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>88</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1797,30 +1809,30 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f>H11*10+2</f>
         <v>12</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>7.2720000000000002</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="2"/>
         <v>7.03592</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="3"/>
         <v>7.03592</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1845,37 +1857,37 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f>H12*8</f>
         <v>8</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>2.1520000000000001</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="2"/>
         <v>4.3559999999999999</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="3"/>
         <v>2.1520000000000001</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>74.34</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1900,39 +1912,39 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f>H13*8</f>
         <v>8</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>0.33600000000000002</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="2"/>
         <v>4.1719999999999997</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="3"/>
         <v>0.33600000000000002</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>89</v>
       </c>
-      <c r="Q13" s="3">
-        <f>SUM(Q4:Q12)</f>
+      <c r="R13" s="3">
+        <f>SUM(R4:R12)</f>
         <v>216.57000000000002</v>
       </c>
-      <c r="T13" s="3">
-        <f>SUM(T4:T12)</f>
+      <c r="U13" s="3">
+        <f>SUM(U4:U12)</f>
         <v>78.59</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1957,39 +1969,39 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>17.57</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f t="shared" si="2"/>
         <v>10.365600000000001</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="3"/>
         <v>10.365600000000001</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" s="3">
-        <f>0.12*Q13</f>
+      <c r="R14" s="3">
+        <f>0.12*R13</f>
         <v>25.988400000000002</v>
       </c>
-      <c r="T14" s="3">
-        <f>0.17*T13</f>
+      <c r="U14" s="3">
+        <f>0.17*U13</f>
         <v>13.360300000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2014,35 +2026,35 @@
       <c r="H15">
         <v>2</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>21.937999999999999</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f t="shared" si="2"/>
         <v>15.195999999999998</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="3"/>
         <v>15.195999999999998</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>96</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>17.5</v>
       </c>
-      <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -2067,39 +2079,39 @@
       <c r="H16">
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>0.45999999999999996</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f t="shared" si="2"/>
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f t="shared" si="3"/>
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>73</v>
       </c>
-      <c r="Q16" s="3">
-        <f>SUM(Q13:Q15)</f>
+      <c r="R16" s="3">
+        <f>SUM(R13:R15)</f>
         <v>260.05840000000001</v>
       </c>
-      <c r="T16" s="3">
-        <f>T13+T14</f>
+      <c r="U16" s="3">
+        <f>U13+U14</f>
         <v>91.950299999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2124,30 +2136,30 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f t="shared" si="2"/>
         <v>4.0549999999999997</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f t="shared" si="3"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="Q17" s="3"/>
-      <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2172,36 +2184,36 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f t="shared" si="2"/>
         <v>4.0490000000000004</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f t="shared" si="3"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="Q18" s="3">
-        <f>Q16+N22</f>
-        <v>372.69568000000004</v>
-      </c>
-      <c r="T18" s="3">
-        <f>T16+J22</f>
-        <v>306.73869999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R18" s="3">
+        <f>R16+O22</f>
+        <v>322.69888000000003</v>
+      </c>
+      <c r="U18" s="3">
+        <f>U16+(K22+L41)*1.12</f>
+        <v>370.41074800000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -2217,39 +2229,39 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f>H19*8</f>
         <v>8</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>10.656000000000001</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="2"/>
         <v>EMPTY</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <f t="shared" si="3"/>
         <v>10.656000000000001</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>91</v>
       </c>
-      <c r="Q19" s="3">
-        <f>Q18/10</f>
-        <v>37.269568000000007</v>
-      </c>
-      <c r="T19" s="3">
-        <f>T18/10</f>
-        <v>30.673870000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R19" s="3">
+        <f>R18/10</f>
+        <v>32.269888000000002</v>
+      </c>
+      <c r="U19" s="3">
+        <f>U18/10</f>
+        <v>37.041074800000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -2274,66 +2286,66 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>46.7</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f t="shared" si="2"/>
         <v>16.529499999999999</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f t="shared" si="3"/>
         <v>16.529499999999999</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M21">
-        <f>COUNTIF(M2:M20,"JLC")</f>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <f>COUNTIF(N2:N20,"JLC")</f>
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J22">
-        <f>SUM(J2:J20)</f>
-        <v>214.78839999999997</v>
-      </c>
-      <c r="K22" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <f>SUM(K2:K20)</f>
+        <v>219.74039999999997</v>
+      </c>
+      <c r="L22" t="s">
         <v>73</v>
       </c>
-      <c r="L22">
-        <f>SUM(L2:L20)</f>
-        <v>121.84780000000001</v>
-      </c>
-      <c r="M22" s="2">
-        <f>SUMIF(M2:M20,"JLC",L2:L20)</f>
-        <v>94.803799999999995</v>
-      </c>
-      <c r="N22">
-        <f>(L22-M22+J41)*1.12</f>
-        <v>112.63728000000003</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="M22">
+        <f>SUM(M2:M20)</f>
+        <v>122.52280000000002</v>
+      </c>
+      <c r="N22" s="2">
+        <f>SUMIF(N2:N20,"JLC",M2:M20)</f>
+        <v>95.478800000000007</v>
+      </c>
+      <c r="O22">
+        <f>(M22-N22+L41)*1.12</f>
+        <v>62.640480000000018</v>
+      </c>
+      <c r="R22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M23" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N23" t="s">
         <v>112</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>97</v>
       </c>
@@ -2341,23 +2353,23 @@
         <v>1.3497425000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q25">
         <f>30.95/8</f>
         <v>3.8687499999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>3568</v>
       </c>
@@ -2367,15 +2379,15 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>8</v>
       </c>
-      <c r="J28">
-        <f>E28*I28</f>
+      <c r="L28">
+        <f>E28*J28</f>
         <v>13.44</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>99</v>
       </c>
@@ -2385,21 +2397,21 @@
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>15</v>
       </c>
-      <c r="J29">
-        <f t="shared" ref="J29:J40" si="5">E29*I29</f>
+      <c r="L29">
+        <f t="shared" ref="L29:L40" si="5">E29*J29</f>
         <v>6.1349999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>100</v>
       </c>
@@ -2409,48 +2421,57 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <f t="shared" si="5"/>
         <v>8.85</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J33">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J34">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" t="s">
         <v>115</v>
       </c>
-      <c r="C35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J35">
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -2467,14 +2488,21 @@
         <v>8</v>
       </c>
       <c r="J36">
-        <f t="shared" si="5"/>
-        <v>15.04</v>
-      </c>
-      <c r="L36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="K36">
+        <f>J36-I36</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>E36*K36</f>
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -2491,26 +2519,37 @@
         <v>8</v>
       </c>
       <c r="J37">
-        <f t="shared" si="5"/>
-        <v>29.6</v>
-      </c>
-      <c r="L37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37:K40" si="6">J37-I37</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f>E37*K37</f>
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>105</v>
       </c>
       <c r="B38" t="s">
         <v>101</v>
       </c>
-      <c r="J38">
+      <c r="K38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>106</v>
       </c>
@@ -2523,15 +2562,19 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>10</v>
       </c>
-      <c r="J39">
+      <c r="K39">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="5"/>
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>108</v>
       </c>
@@ -2544,21 +2587,25 @@
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>10</v>
       </c>
-      <c r="J40">
+      <c r="K40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="5"/>
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I41" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
         <v>113</v>
       </c>
-      <c r="J41">
-        <f>SUM(J28:J40)</f>
-        <v>73.525000000000006</v>
+      <c r="L41">
+        <f>SUM(L28:L40)</f>
+        <v>28.884999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/MidPlate/Midplate BOM Jan 15.xlsx
+++ b/MidPlate/Midplate BOM Jan 15.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The Bots\Electrical\MidPlate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The_Bots\Electrical\MidPlate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D029397A-35E5-4644-9144-31EDB81D0755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5506F1D5-FE00-41B4-8BCF-70131C88C49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,11 +1331,11 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <f>H2*10</f>
+        <f>H2*10-I2</f>
         <v>10</v>
       </c>
       <c r="K2">
-        <f>E2*J2</f>
+        <f>E2*(J2-I2)</f>
         <v>0.74</v>
       </c>
       <c r="L2">
@@ -1381,7 +1381,7 @@
         <v>10</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K20" si="1">E3*J3</f>
+        <f t="shared" ref="K3:K20" si="1">E3*(J3-I3)</f>
         <v>14.71</v>
       </c>
       <c r="L3">
@@ -1969,13 +1969,16 @@
       <c r="H14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
       <c r="J14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>17.57</v>
+        <v>1.7569999999999999</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
@@ -1983,11 +1986,11 @@
       </c>
       <c r="M14">
         <f t="shared" si="3"/>
-        <v>10.365600000000001</v>
+        <v>1.7569999999999999</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="4"/>
-        <v>JLC</v>
+        <v>DIGIKEY</v>
       </c>
       <c r="Q14" t="s">
         <v>95</v>
@@ -2206,11 +2209,11 @@
       </c>
       <c r="R18" s="3">
         <f>R16+O22</f>
-        <v>322.69888000000003</v>
+        <v>324.66672000000005</v>
       </c>
       <c r="U18" s="3">
         <f>U16+(K22+L41)*1.12</f>
-        <v>370.41074800000001</v>
+        <v>352.70018800000003</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -2254,11 +2257,11 @@
       </c>
       <c r="R19" s="3">
         <f>R18/10</f>
-        <v>32.269888000000002</v>
+        <v>32.466672000000003</v>
       </c>
       <c r="U19" s="3">
         <f>U18/10</f>
-        <v>37.041074800000004</v>
+        <v>35.270018800000003</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -2310,28 +2313,28 @@
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N21">
         <f>COUNTIF(N2:N20,"JLC")</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K22">
         <f>SUM(K2:K20)</f>
-        <v>219.74039999999997</v>
+        <v>203.92739999999998</v>
       </c>
       <c r="L22" t="s">
         <v>73</v>
       </c>
       <c r="M22">
         <f>SUM(M2:M20)</f>
-        <v>122.52280000000002</v>
+        <v>113.91420000000002</v>
       </c>
       <c r="N22" s="2">
         <f>SUMIF(N2:N20,"JLC",M2:M20)</f>
-        <v>95.478800000000007</v>
+        <v>85.113200000000006</v>
       </c>
       <c r="O22">
         <f>(M22-N22+L41)*1.12</f>
-        <v>62.640480000000018</v>
+        <v>64.60832000000002</v>
       </c>
       <c r="R22" t="s">
         <v>94</v>

--- a/MidPlate/Midplate BOM Jan 15.xlsx
+++ b/MidPlate/Midplate BOM Jan 15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The_Bots\Electrical\MidPlate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5506F1D5-FE00-41B4-8BCF-70131C88C49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8BC7A1-AF8F-4E48-9413-0CD36D896BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
   <si>
     <t>Ref</t>
   </si>
@@ -396,6 +396,27 @@
   </si>
   <si>
     <t>housing 6 pin</t>
+  </si>
+  <si>
+    <t>override</t>
+  </si>
+  <si>
+    <t>DIGIKEY</t>
+  </si>
+  <si>
+    <t>DNP QTY</t>
+  </si>
+  <si>
+    <t>QTY after DNP</t>
+  </si>
+  <si>
+    <t>WM21789-1-ND</t>
+  </si>
+  <si>
+    <t>4 cond cable 22AWG</t>
+  </si>
+  <si>
+    <t>T1331-1-ND</t>
   </si>
 </sst>
 </file>
@@ -1251,20 +1272,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="8.77734375" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" customWidth="1"/>
-    <col min="20" max="20" width="16.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.77734375" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" customWidth="1"/>
+    <col min="23" max="23" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1290,22 +1312,31 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" t="s">
         <v>118</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>80</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1331,27 +1362,31 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <f>H2*10-I2</f>
+        <f>H2-I2</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>H2*10</f>
         <v>10</v>
       </c>
-      <c r="K2">
-        <f>E2*(J2-I2)</f>
+      <c r="M2">
+        <f>E2*(L2-K2)</f>
         <v>0.74</v>
       </c>
-      <c r="L2">
-        <f>IF(ISBLANK(F2),"EMPTY",(F2*J2+IF(G2="yes",4.04,0)))</f>
+      <c r="N2">
+        <f>IF(ISBLANK(F2),"EMPTY",(F2*L2+IF(G2="yes",4.04,0)))</f>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="M2">
-        <f>IF(L2="EMPTY",K2,IF(L2&lt;K2+1,L2,K2))</f>
+      <c r="P2">
+        <f t="shared" ref="P2:P20" si="0">IF(N2="EMPTY",M2,IF(B2="Bottom",M2,IF(O2="DIGIKEY",M2,IF(O2="JLC",N2,IF(N2&lt;M2+0.2,N2,M2)))))</f>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="N2" t="str">
-        <f>IF(L2="EMPTY","DIGIKEY",IF(L2&lt;K2+1,"JLC","DIGIKEY"))</f>
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:Q20" si="1">IF(N2="EMPTY","DIGIKEY",IF(B2="Bottom","DIGIKEY",IF(O2="DIGIKEY",O2,IF(O2="JLC",O2,IF(N2&lt;M2+0.2,"JLC","DIGIKEY")))))</f>
         <v>JLC</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1377,30 +1412,37 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J20" si="0">H3*10</f>
+        <f t="shared" ref="J3:J20" si="2">H3-I3</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L20" si="3">H3*10</f>
         <v>10</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K20" si="1">E3*(J3-I3)</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M20" si="4">E3*(L3-K3)</f>
         <v>14.71</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L20" si="2">IF(ISBLANK(F3),"EMPTY",(F3*J3+IF(G3="yes",4.04,0)))</f>
+      <c r="N3">
+        <f t="shared" ref="N3:N20" si="5">IF(ISBLANK(F3),"EMPTY",(F3*L3+IF(G3="yes",4.04,0)))</f>
         <v>14.670500000000001</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M20" si="3">IF(L3="EMPTY",K3,IF(L3&lt;K3+1,L3,K3))</f>
-        <v>14.670500000000001</v>
-      </c>
-      <c r="N3" t="str">
-        <f t="shared" ref="N3:N20" si="4">IF(L3="EMPTY","DIGIKEY",IF(L3&lt;K3+1,"JLC","DIGIKEY"))</f>
-        <v>JLC</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="O3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>14.71</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="1"/>
+        <v>DIGIKEY</v>
+      </c>
+      <c r="X3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1426,37 +1468,41 @@
         <v>1</v>
       </c>
       <c r="J4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>3.17</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K4">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="Q4" t="str">
         <f t="shared" si="1"/>
-        <v>3.17</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="3"/>
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="N4" t="str">
-        <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T4" t="s">
         <v>82</v>
       </c>
-      <c r="R4" s="3">
+      <c r="U4" s="3">
         <v>33.590000000000003</v>
       </c>
-      <c r="U4" s="3">
-        <f>R4</f>
+      <c r="X4" s="3">
+        <f>U4</f>
         <v>33.590000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1482,36 +1528,40 @@
         <v>1</v>
       </c>
       <c r="J5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K5">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="Q5" t="str">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" t="s">
         <v>83</v>
       </c>
-      <c r="R5" s="3">
+      <c r="U5" s="3">
         <v>10.78</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1537,36 +1587,40 @@
         <v>1</v>
       </c>
       <c r="J6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K6">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="Q6" t="str">
         <f t="shared" si="1"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>7.2800000000000004E-2</v>
-      </c>
-      <c r="M6">
-        <f>IF(L6="EMPTY",K6,IF(L6&lt;K6+1,L6,K6))</f>
-        <v>7.2800000000000004E-2</v>
-      </c>
-      <c r="N6" t="str">
-        <f>IF(L6="EMPTY","DIGIKEY",IF(L6&lt;K6+1,"JLC","DIGIKEY"))</f>
         <v>JLC</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="T6" t="s">
         <v>84</v>
       </c>
-      <c r="R6" s="3">
+      <c r="U6" s="3">
         <v>2.02</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1592,43 +1646,47 @@
         <v>1</v>
       </c>
       <c r="J7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>12.66</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>13.093900000000001</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K7">
+        <v>12.66</v>
+      </c>
+      <c r="Q7" t="str">
         <f t="shared" si="1"/>
-        <v>12.66</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>13.093900000000001</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
-        <v>13.093900000000001</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="4"/>
-        <v>JLC</v>
-      </c>
-      <c r="Q7" t="s">
+        <v>DIGIKEY</v>
+      </c>
+      <c r="T7" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="3">
+      <c r="U7" s="3">
         <v>62.46</v>
       </c>
-      <c r="S7" s="2">
-        <f>SUM(R7:R8)</f>
+      <c r="V7" s="2">
+        <f>SUM(U7:U8)</f>
         <v>93.41</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>90</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1654,36 +1712,40 @@
         <v>1</v>
       </c>
       <c r="J8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
         <f>H8*10+2</f>
         <v>12</v>
       </c>
-      <c r="K8">
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>5.7119999999999997</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>5.2428799999999995</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>5.2428799999999995</v>
+      </c>
+      <c r="Q8" t="str">
         <f t="shared" si="1"/>
-        <v>5.7119999999999997</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>5.2428799999999995</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
-        <v>5.2428799999999995</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="T8" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>30.95</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1700,36 +1762,40 @@
         <v>1</v>
       </c>
       <c r="J9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
         <f>H9*8</f>
         <v>8</v>
       </c>
-      <c r="K9">
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>13.44</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="5"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>13.44</v>
+      </c>
+      <c r="Q9" t="str">
         <f t="shared" si="1"/>
-        <v>13.44</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="2"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
-        <v>13.44</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="T9" t="s">
         <v>87</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>1.85</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1755,36 +1821,40 @@
         <v>12</v>
       </c>
       <c r="J10">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L10">
         <f>H10*10+2</f>
         <v>122</v>
       </c>
-      <c r="K10">
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>60.414399999999993</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>12.275000000000002</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>12.275000000000002</v>
+      </c>
+      <c r="Q10" t="str">
         <f t="shared" si="1"/>
-        <v>60.414399999999993</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>12.275000000000002</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
-        <v>12.275000000000002</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="T10" t="s">
         <v>88</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1807,32 +1877,39 @@
         <v>20</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
       </c>
       <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
         <f>H11*10+2</f>
-        <v>12</v>
-      </c>
-      <c r="K11">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>13.331999999999999</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>9.5325199999999999</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>9.5325199999999999</v>
+      </c>
+      <c r="Q11" t="str">
         <f t="shared" si="1"/>
-        <v>7.2720000000000002</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>7.03592</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
-        <v>7.03592</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="R11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1858,36 +1935,40 @@
         <v>1</v>
       </c>
       <c r="J12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
         <f>H12*8</f>
         <v>8</v>
       </c>
-      <c r="K12">
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="Q12" t="str">
         <f t="shared" si="1"/>
-        <v>2.1520000000000001</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
-        <v>4.3559999999999999</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
-        <v>2.1520000000000001</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="T12" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="3">
+      <c r="U12" s="3">
         <v>74.34</v>
       </c>
-      <c r="U12" s="3">
+      <c r="X12" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1913,38 +1994,42 @@
         <v>1</v>
       </c>
       <c r="J13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
         <f>H13*8</f>
         <v>8</v>
       </c>
-      <c r="K13">
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>4.1719999999999997</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="Q13" t="str">
         <f t="shared" si="1"/>
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>4.1719999999999997</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="3"/>
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="T13" t="s">
         <v>89</v>
-      </c>
-      <c r="R13" s="3">
-        <f>SUM(R4:R12)</f>
-        <v>216.57000000000002</v>
       </c>
       <c r="U13" s="3">
         <f>SUM(U4:U12)</f>
+        <v>216.57000000000002</v>
+      </c>
+      <c r="X13" s="3">
+        <f>SUM(X4:X12)</f>
         <v>78.59</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1969,42 +2054,43 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>9</v>
-      </c>
       <c r="J14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>17.57</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>10.365600000000001</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K14">
+        <v>10.365600000000001</v>
+      </c>
+      <c r="Q14" t="str">
         <f t="shared" si="1"/>
-        <v>1.7569999999999999</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
-        <v>10.365600000000001</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
-        <v>1.7569999999999999</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="4"/>
-        <v>DIGIKEY</v>
-      </c>
-      <c r="Q14" t="s">
+        <v>JLC</v>
+      </c>
+      <c r="T14" t="s">
         <v>95</v>
       </c>
-      <c r="R14" s="3">
-        <f>0.12*R13</f>
+      <c r="U14" s="3">
+        <f>0.12*U13</f>
         <v>25.988400000000002</v>
       </c>
-      <c r="U14" s="3">
-        <f>0.17*U13</f>
+      <c r="X14" s="3">
+        <f>0.17*X13</f>
         <v>13.360300000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2030,34 +2116,38 @@
         <v>2</v>
       </c>
       <c r="J15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>21.937999999999999</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>15.195999999999998</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K15">
+        <v>15.195999999999998</v>
+      </c>
+      <c r="Q15" t="str">
         <f t="shared" si="1"/>
-        <v>21.937999999999999</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
-        <v>15.195999999999998</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="3"/>
-        <v>15.195999999999998</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="T15" t="s">
         <v>96</v>
       </c>
-      <c r="R15" s="3">
+      <c r="U15" s="3">
         <v>17.5</v>
       </c>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -2083,38 +2173,42 @@
         <v>2</v>
       </c>
       <c r="J16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K16">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="Q16" t="str">
         <f t="shared" si="1"/>
-        <v>0.45999999999999996</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="2"/>
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="3"/>
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="T16" t="s">
         <v>73</v>
       </c>
-      <c r="R16" s="3">
-        <f>SUM(R13:R15)</f>
+      <c r="U16" s="3">
+        <f>SUM(U13:U15)</f>
         <v>260.05840000000001</v>
       </c>
-      <c r="U16" s="3">
-        <f>U13+U14</f>
+      <c r="X16" s="3">
+        <f>X13+X14</f>
         <v>91.950299999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2140,29 +2234,33 @@
         <v>1</v>
       </c>
       <c r="J17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>4.0549999999999997</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K17">
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="Q17" t="str">
         <f t="shared" si="1"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="2"/>
-        <v>4.0549999999999997</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="R17" s="3"/>
       <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2188,35 +2286,39 @@
         <v>1</v>
       </c>
       <c r="J18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>4.0490000000000004</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K18">
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="Q18" t="str">
         <f t="shared" si="1"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="2"/>
-        <v>4.0490000000000004</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="R18" s="3">
-        <f>R16+O22</f>
-        <v>324.66672000000005</v>
-      </c>
       <c r="U18" s="3">
-        <f>U16+(K22+L41)*1.12</f>
-        <v>352.70018800000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+        <f>U16+R22</f>
+        <v>338.30047999999999</v>
+      </c>
+      <c r="X18" s="3">
+        <f>X16+(M22+N40)*1.12</f>
+        <v>362.14514799999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -2233,38 +2335,42 @@
         <v>1</v>
       </c>
       <c r="J19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L19">
         <f>H19*8</f>
         <v>8</v>
       </c>
-      <c r="K19">
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>10.656000000000001</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="5"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>10.656000000000001</v>
+      </c>
+      <c r="Q19" t="str">
         <f t="shared" si="1"/>
-        <v>10.656000000000001</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="2"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="3"/>
-        <v>10.656000000000001</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="4"/>
         <v>DIGIKEY</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="T19" t="s">
         <v>91</v>
-      </c>
-      <c r="R19" s="3">
-        <f>R18/10</f>
-        <v>32.466672000000003</v>
       </c>
       <c r="U19" s="3">
         <f>U18/10</f>
-        <v>35.270018800000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <v>33.830047999999998</v>
+      </c>
+      <c r="X19" s="3">
+        <f>X18/10</f>
+        <v>36.214514799999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -2290,65 +2396,69 @@
         <v>1</v>
       </c>
       <c r="J20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>46.7</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>16.529499999999999</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K20">
+        <v>16.529499999999999</v>
+      </c>
+      <c r="Q20" t="str">
         <f t="shared" si="1"/>
-        <v>46.7</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="2"/>
-        <v>16.529499999999999</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="3"/>
-        <v>16.529499999999999</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="4"/>
         <v>JLC</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N21">
-        <f>COUNTIF(N2:N20,"JLC")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="K22">
-        <f>SUM(K2:K20)</f>
-        <v>203.92739999999998</v>
-      </c>
-      <c r="L22" t="s">
-        <v>73</v>
-      </c>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <f>COUNTIF(Q2:Q20,"JLC")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M22">
         <f>SUM(M2:M20)</f>
-        <v>113.91420000000002</v>
-      </c>
-      <c r="N22" s="2">
-        <f>SUMIF(N2:N20,"JLC",M2:M20)</f>
-        <v>85.113200000000006</v>
-      </c>
-      <c r="O22">
-        <f>(M22-N22+L41)*1.12</f>
-        <v>64.60832000000002</v>
-      </c>
-      <c r="R22" t="s">
+        <v>225.80039999999997</v>
+      </c>
+      <c r="N22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22">
+        <f>SUM(P2:P20)</f>
+        <v>124.62500000000001</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>SUMIF(Q2:Q20,"JLC",P2:P20)</f>
+        <v>70.210999999999999</v>
+      </c>
+      <c r="R22">
+        <f>(P22-Q22+N40)*1.12</f>
+        <v>78.242080000000016</v>
+      </c>
+      <c r="U22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N23" t="s">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q23" t="s">
         <v>112</v>
       </c>
-      <c r="O23" t="s">
+      <c r="R23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>97</v>
       </c>
@@ -2356,208 +2466,215 @@
         <v>1.3497425000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="Q25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T25">
         <f>30.95/8</f>
         <v>3.8687499999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L27" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>3568</v>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>99</v>
       </c>
       <c r="E28">
-        <v>1.68</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>8</v>
-      </c>
       <c r="L28">
-        <f>E28*J28</f>
-        <v>13.44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="J29">
         <v>15</v>
       </c>
-      <c r="L29">
-        <f t="shared" ref="L29:L40" si="5">E29*J29</f>
+      <c r="N28">
+        <f t="shared" ref="N28:N39" si="6">E28*L28</f>
         <v>6.1349999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31">
-        <v>8.85</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
-        <v>8.85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>120</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>119</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
-      <c r="I35">
-        <v>100</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36">
-        <v>1.88</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>8</v>
-      </c>
-      <c r="J36">
-        <v>8</v>
-      </c>
-      <c r="K36">
-        <f>J36-I36</f>
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <f>E36*K36</f>
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37">
-        <v>3.7</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>8</v>
-      </c>
-      <c r="J37">
-        <v>8</v>
-      </c>
-      <c r="K37">
-        <f t="shared" ref="K37:K40" si="6">J37-I37</f>
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <f>E37*K37</f>
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" t="s">
-        <v>101</v>
-      </c>
-      <c r="K38">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>8.85</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35">
+        <v>1.88</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>8</v>
+      </c>
+      <c r="L35">
+        <v>8</v>
+      </c>
+      <c r="M35">
+        <f>L35-K35</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>E35*M35</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36">
+        <v>3.7</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>8</v>
+      </c>
+      <c r="L36">
+        <v>8</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ref="M36:M39" si="7">L36-K36</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f>E36*M36</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
       <c r="L38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E39">
         <v>2.3E-2</v>
@@ -2565,50 +2682,36 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>10</v>
       </c>
-      <c r="K39">
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="5"/>
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>108</v>
-      </c>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>10</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="5"/>
-        <v>0.22999999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>126</v>
+      </c>
+      <c r="L40" t="s">
         <v>113</v>
       </c>
-      <c r="L41">
-        <f>SUM(L28:L40)</f>
-        <v>28.884999999999998</v>
+      <c r="N40">
+        <f>SUM(N28:N39)</f>
+        <v>15.445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/MidPlate/Midplate BOM Jan 15.xlsx
+++ b/MidPlate/Midplate BOM Jan 15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The_Bots\Electrical\MidPlate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8BC7A1-AF8F-4E48-9413-0CD36D896BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AA5FEA-F346-4885-AA7D-CC3AE64D0230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Midplate BOM Jan 14" sheetId="1" r:id="rId1"/>
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
